--- a/Paycheque Information.xlsx
+++ b/Paycheque Information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torra\OneDrive\Documents\Josh's Files\Finances\AHS\Paycheques\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\torra\OneDrive\Documents\GitHub\ahs-paycheque-extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBB0879-C542-4BD7-9B70-49D536D2C4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64948D07-BBEB-443D-BC23-E3FE40E7E3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paycheque Details" sheetId="1" r:id="rId1"/>
@@ -893,8 +893,8 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Pay Begin Date" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Pay End Date" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Advice Date" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Advice Number" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Advice Number" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Advice Date" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -906,8 +906,8 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Pay End Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Advice Date"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Advice Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Advice Number"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Advice Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Current"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="Supplemental"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Next Year"/>
@@ -922,8 +922,8 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Pay End Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Advice Date"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Advice Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Advice Number"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Advice Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="YTD OT Bank"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="YTD Sick Bank"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="YTD Stat Bank"/>
@@ -939,8 +939,8 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Pay End Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Advice Date"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Advice Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Advice Number"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Advice Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="OS/Advance"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -953,8 +953,8 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Pay End Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Advice Date"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Advice Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="Advice Number"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Advice Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Account Type"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="Deposit Amount"/>
   </tableColumns>
@@ -968,8 +968,8 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Pay End Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Advice Date"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Advice Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="Advice Number"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="Advice Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="Advice Number Reference"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="Amount"/>
   </tableColumns>
@@ -983,8 +983,8 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Pay Begin Date" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="Pay End Date" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Advice Date" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Advice Number" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="Advice Number" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="Advice Date" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="Message"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -997,8 +997,8 @@
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Pay End Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Advice Date"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Advice Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Advice Number"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Advice Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Employee ID"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Department"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Location"/>
@@ -1015,8 +1015,8 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Pay Begin Date" dataDxfId="34"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Pay End Date" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Advice Date" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Advice Number" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Advice Number" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Advice Date" dataDxfId="31"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Federal - Net Claim Amount" dataDxfId="30"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Federal - Special Letters" dataDxfId="29"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Federal - Additional Percent" dataDxfId="28"/>
@@ -1036,8 +1036,8 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Pay End Date" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Advice Date" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Advice Number" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Advice Number" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Advice Date" dataDxfId="23"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Description" dataDxfId="22"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Current - Rate" dataDxfId="21"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Current - Hours"/>
@@ -1055,8 +1055,8 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Pay End Date" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Advice Date" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Advice Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Advice Number" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Advice Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Description"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Current"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="YTD"/>
@@ -1071,8 +1071,8 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Pay End Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Advice Date"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Advice Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Advice Number"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Advice Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Description"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Current"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="YTD"/>
@@ -1087,8 +1087,8 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Pay End Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Advice Date"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Advice Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Advice Number"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Advice Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Description"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Current"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="YTD"/>
@@ -1103,8 +1103,8 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Pay End Date" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Advice Date" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Advice Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Advice Number" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Advice Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Description"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="Current"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="YTD"/>
@@ -1119,8 +1119,8 @@
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Pay Begin Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Pay End Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Advice Date"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Advice Number"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Advice Number"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Advice Date"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Current - Total Gross"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="Current - CIT Taxable Gross"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Current - Total Taxes"/>
@@ -1455,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1472,11 +1472,11 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,10 +1517,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>23</v>
@@ -1574,10 +1574,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>37</v>
@@ -1632,10 +1632,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>41</v>
@@ -1679,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>42</v>
@@ -1729,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>44</v>
@@ -1759,7 +1759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1778,10 +1778,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>46</v>
@@ -1825,11 +1825,11 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1888,11 +1888,11 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
@@ -1967,11 +1967,11 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>17</v>
@@ -2035,10 +2035,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>17</v>
@@ -2089,11 +2089,11 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>17</v>
@@ -2144,11 +2144,11 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>17</v>
@@ -2198,11 +2198,11 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>17</v>
@@ -2261,10 +2261,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>25</v>
